--- a/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3BC46-BC9D-4D9E-B389-C6346EFABC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPBD" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>UPBD</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,11 +689,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -671,20 +708,33 @@
     <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,8 +762,62 @@
       <c r="K7" s="2">
         <v>44286</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="N7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="P7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="S7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="T7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="U7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="V7" s="2">
+        <v>43281</v>
+      </c>
+      <c r="W7" s="2">
+        <v>43190</v>
+      </c>
+      <c r="X7" s="2">
+        <v>43100</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>43008</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>42916</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>42825</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>42735</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +845,62 @@
       <c r="K8" s="3">
         <v>1036800</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>716500</v>
+      </c>
+      <c r="M8" s="3">
+        <v>712000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>683700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>701900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>667900</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>649400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>655900</v>
+      </c>
+      <c r="S8" s="3">
+        <v>696700</v>
+      </c>
+      <c r="T8" s="3">
+        <v>661800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>644900</v>
+      </c>
+      <c r="V8" s="3">
+        <v>655700</v>
+      </c>
+      <c r="W8" s="3">
+        <v>698000</v>
+      </c>
+      <c r="X8" s="3">
+        <v>639000</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>644000</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>677600</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>742000</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>684100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>693900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +928,62 @@
       <c r="K9" s="3">
         <v>526300</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>289100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>287000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>284200</v>
+      </c>
+      <c r="O9" s="3">
+        <v>281800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>256700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>249400</v>
+      </c>
+      <c r="R9" s="3">
+        <v>247900</v>
+      </c>
+      <c r="S9" s="3">
+        <v>271800</v>
+      </c>
+      <c r="T9" s="3">
+        <v>242200</v>
+      </c>
+      <c r="U9" s="3">
+        <v>237200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>231800</v>
+      </c>
+      <c r="W9" s="3">
+        <v>261100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>228100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>231500</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>245100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>279300</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>241400</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>236700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +1011,62 @@
       <c r="K10" s="3">
         <v>510500</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>427400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>425000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>399500</v>
+      </c>
+      <c r="O10" s="3">
+        <v>420100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>411200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>400000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>408000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>424900</v>
+      </c>
+      <c r="T10" s="3">
+        <v>419600</v>
+      </c>
+      <c r="U10" s="3">
+        <v>407700</v>
+      </c>
+      <c r="V10" s="3">
+        <v>423900</v>
+      </c>
+      <c r="W10" s="3">
+        <v>436900</v>
+      </c>
+      <c r="X10" s="3">
+        <v>410900</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>412500</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>432500</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>462700</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>442700</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>457200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +1078,26 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +1125,62 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +1208,62 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +1291,62 @@
       <c r="K14" s="3">
         <v>35900</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="U14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V14" s="3">
+        <v>15200</v>
+      </c>
+      <c r="W14" s="3">
+        <v>19500</v>
+      </c>
+      <c r="X14" s="3">
+        <v>27600</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>13700</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>151300</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +1374,62 @@
       <c r="K15" s="3">
         <v>13400</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>14300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P15" s="3">
+        <v>15300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R15" s="3">
+        <v>15100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="T15" s="3">
+        <v>16700</v>
+      </c>
+      <c r="U15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="V15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="W15" s="3">
+        <v>17900</v>
+      </c>
+      <c r="X15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +1438,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,8 +1485,62 @@
       <c r="K17" s="3">
         <v>966700</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>661900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>631800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>630100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>653100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>610500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>526100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>679300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>648100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>619300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>628600</v>
+      </c>
+      <c r="W17" s="3">
+        <v>708300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>693800</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>652400</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>678500</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>740800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>843400</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>677200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1568,62 @@
       <c r="K18" s="3">
         <v>70100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>80200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>53600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>48800</v>
+      </c>
+      <c r="P18" s="3">
+        <v>67900</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>38900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>129800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>17400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="U18" s="3">
+        <v>25600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>27100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1635,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1682,62 @@
       <c r="K20" s="3">
         <v>-8700</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S20" s="3">
+        <v>900</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
+        <v>300</v>
+      </c>
+      <c r="X20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1765,62 @@
       <c r="K21" s="3">
         <v>90000</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>68400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>94200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>68300</v>
+      </c>
+      <c r="O21" s="3">
+        <v>63900</v>
+      </c>
+      <c r="P21" s="3">
+        <v>83500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>51700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>146900</v>
+      </c>
+      <c r="S21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="T21" s="3">
+        <v>30200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>42900</v>
+      </c>
+      <c r="V21" s="3">
+        <v>44800</v>
+      </c>
+      <c r="W21" s="3">
+        <v>7800</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>10400</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>184200</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>18800</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>194300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1848,62 @@
       <c r="K22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="V22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="W22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="X22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1931,62 @@
       <c r="K23" s="3">
         <v>49400</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>51500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>77000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>49700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>44600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>63200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>121700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="T23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>16500</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-170900</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +2014,62 @@
       <c r="K24" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>22700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>27300</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="X24" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +2097,62 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +2180,62 @@
       <c r="K26" s="3">
         <v>42600</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>64000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>49300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>40500</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>31300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>94500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U26" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +2263,62 @@
       <c r="K27" s="3">
         <v>42600</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>64000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>49300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>40500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>31300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>94500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U27" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +2346,62 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +2429,62 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
+        <v>76500</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +2512,62 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +2595,62 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +2678,62 @@
       <c r="K32" s="3">
         <v>8700</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +2761,62 @@
       <c r="K33" s="3">
         <v>42600</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>64000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>49300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>40500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>31300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>94500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U33" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="X33" s="3">
+        <v>34800</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +2844,62 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,13 +2927,67 @@
       <c r="K35" s="3">
         <v>42600</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>64000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>49300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>40500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>31300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>94500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U35" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="X35" s="3">
+        <v>34800</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,8 +3015,62 @@
       <c r="K38" s="2">
         <v>44286</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="N38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="O38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="P38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="R38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="S38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="T38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="U38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="V38" s="2">
+        <v>43281</v>
+      </c>
+      <c r="W38" s="2">
+        <v>43190</v>
+      </c>
+      <c r="X38" s="2">
+        <v>43100</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>43008</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>42916</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>42825</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>42735</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +3082,26 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +3113,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +3160,62 @@
       <c r="K41" s="3">
         <v>123000</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>159400</v>
+      </c>
+      <c r="M41" s="3">
+        <v>227400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>206400</v>
+      </c>
+      <c r="O41" s="3">
+        <v>182900</v>
+      </c>
+      <c r="P41" s="3">
+        <v>70500</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>73700</v>
+      </c>
+      <c r="R41" s="3">
+        <v>353100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>237700</v>
+      </c>
+      <c r="T41" s="3">
+        <v>155400</v>
+      </c>
+      <c r="U41" s="3">
+        <v>111000</v>
+      </c>
+      <c r="V41" s="3">
+        <v>116800</v>
+      </c>
+      <c r="W41" s="3">
+        <v>81400</v>
+      </c>
+      <c r="X41" s="3">
+        <v>73000</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>76200</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>73800</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>58100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>95400</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>130300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +3243,62 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +3326,62 @@
       <c r="K43" s="3">
         <v>115300</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>90000</v>
+      </c>
+      <c r="M43" s="3">
+        <v>75500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>77000</v>
+      </c>
+      <c r="O43" s="3">
+        <v>73100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>84100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>70800</v>
+      </c>
+      <c r="R43" s="3">
+        <v>65700</v>
+      </c>
+      <c r="S43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="T43" s="3">
+        <v>69600</v>
+      </c>
+      <c r="U43" s="3">
+        <v>65200</v>
+      </c>
+      <c r="V43" s="3">
+        <v>69700</v>
+      </c>
+      <c r="W43" s="3">
+        <v>64800</v>
+      </c>
+      <c r="X43" s="3">
+        <v>69800</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>62300</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>64400</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>66600</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>69800</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +3409,62 @@
       <c r="K44" s="3">
         <v>1251200</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>909200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>800900</v>
+      </c>
+      <c r="N44" s="3">
+        <v>737200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>781500</v>
+      </c>
+      <c r="P44" s="3">
+        <v>835700</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>743700</v>
+      </c>
+      <c r="R44" s="3">
+        <v>739100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>767900</v>
+      </c>
+      <c r="T44" s="3">
+        <v>807500</v>
+      </c>
+      <c r="U44" s="3">
+        <v>776300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>782300</v>
+      </c>
+      <c r="W44" s="3">
+        <v>812500</v>
+      </c>
+      <c r="X44" s="3">
+        <v>869000</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>870200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>906300</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +3492,62 @@
       <c r="K45" s="3">
         <v>40800</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="M45" s="3">
+        <v>40200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>33900</v>
+      </c>
+      <c r="O45" s="3">
+        <v>40100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>39100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>36300</v>
+      </c>
+      <c r="S45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="T45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="U45" s="3">
+        <v>67100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>53600</v>
+      </c>
+      <c r="W45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="X45" s="3">
+        <v>64600</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>54400</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>56400</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>52200</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +3575,62 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +3658,62 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>945500</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>970400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +3741,62 @@
       <c r="K48" s="3">
         <v>607400</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>425100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>426100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>424600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>430700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>447700</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>462000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>463500</v>
+      </c>
+      <c r="S48" s="3">
+        <v>485700</v>
+      </c>
+      <c r="T48" s="3">
+        <v>226300</v>
+      </c>
+      <c r="U48" s="3">
+        <v>243100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>253900</v>
+      </c>
+      <c r="W48" s="3">
+        <v>269900</v>
+      </c>
+      <c r="X48" s="3">
+        <v>282900</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>305400</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>311700</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>312700</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>316400</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>315100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +3824,62 @@
       <c r="K49" s="3">
         <v>825700</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>78100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>78300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>78400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>78700</v>
+      </c>
+      <c r="P49" s="3">
+        <v>79000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>79500</v>
+      </c>
+      <c r="R49" s="3">
+        <v>57100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>57100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>57300</v>
+      </c>
+      <c r="U49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="W49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="X49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>57400</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>56200</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>56300</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>60600</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>212500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +3907,62 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +3990,62 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +4073,62 @@
       <c r="K52" s="3">
         <v>37700</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>33800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="N52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="O52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="R52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="S52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="T52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="U52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="V52" s="3">
+        <v>28600</v>
+      </c>
+      <c r="W52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +4156,62 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +4239,62 @@
       <c r="K54" s="3">
         <v>3007000</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1667600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1576600</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1607100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1582800</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1497900</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1744200</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1681400</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1396900</v>
+      </c>
+      <c r="U54" s="3">
+        <v>1352100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1366300</v>
+      </c>
+      <c r="W54" s="3">
+        <v>1386400</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1420800</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1430300</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>1472600</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1602700</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>1748800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +4306,26 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +4337,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +4384,62 @@
       <c r="K57" s="3">
         <v>179900</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>186100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>176300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>145900</v>
+      </c>
+      <c r="O57" s="3">
+        <v>106900</v>
+      </c>
+      <c r="P57" s="3">
+        <v>168100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>105000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>95700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>118900</v>
+      </c>
+      <c r="T57" s="3">
+        <v>113800</v>
+      </c>
+      <c r="U57" s="3">
+        <v>98100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>92400</v>
+      </c>
+      <c r="W57" s="3">
+        <v>90900</v>
+      </c>
+      <c r="X57" s="3">
+        <v>90400</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>88200</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>113000</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>82600</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>108200</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +4467,62 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +4550,62 @@
       <c r="K59" s="3">
         <v>681200</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>605900</v>
+      </c>
+      <c r="M59" s="3">
+        <v>589700</v>
+      </c>
+      <c r="N59" s="3">
+        <v>587300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>506900</v>
+      </c>
+      <c r="P59" s="3">
+        <v>560800</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>574300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>586100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>611100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>337500</v>
+      </c>
+      <c r="U59" s="3">
+        <v>311300</v>
+      </c>
+      <c r="V59" s="3">
+        <v>311500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>329700</v>
+      </c>
+      <c r="X59" s="3">
+        <v>298000</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>328300</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>322300</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>340400</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>332200</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>315800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +4633,62 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +4716,62 @@
       <c r="K61" s="3">
         <v>1332400</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>190500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>190600</v>
+      </c>
+      <c r="N61" s="3">
+        <v>190700</v>
+      </c>
+      <c r="O61" s="3">
+        <v>353800</v>
+      </c>
+      <c r="P61" s="3">
+        <v>230900</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>251000</v>
+      </c>
+      <c r="R61" s="3">
+        <v>540700</v>
+      </c>
+      <c r="S61" s="3">
+        <v>540400</v>
+      </c>
+      <c r="T61" s="3">
+        <v>540000</v>
+      </c>
+      <c r="U61" s="3">
+        <v>539700</v>
+      </c>
+      <c r="V61" s="3">
+        <v>577400</v>
+      </c>
+      <c r="W61" s="3">
+        <v>596500</v>
+      </c>
+      <c r="X61" s="3">
+        <v>667200</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>636300</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>635700</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>653400</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>724200</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>724900</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +4799,62 @@
       <c r="K62" s="3">
         <v>71300</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>176400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>168600</v>
+      </c>
+      <c r="N62" s="3">
+        <v>166200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>163400</v>
+      </c>
+      <c r="P62" s="3">
+        <v>164000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>135800</v>
+      </c>
+      <c r="R62" s="3">
+        <v>129900</v>
+      </c>
+      <c r="S62" s="3">
+        <v>116800</v>
+      </c>
+      <c r="T62" s="3">
+        <v>119100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>119300</v>
+      </c>
+      <c r="V62" s="3">
+        <v>116600</v>
+      </c>
+      <c r="W62" s="3">
+        <v>114400</v>
+      </c>
+      <c r="X62" s="3">
+        <v>87100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>139200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>152800</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>160100</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>173100</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>104400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +4882,62 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +4965,62 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +5048,62 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2255,8 +5131,62 @@
       <c r="K66" s="3">
         <v>2264800</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>1158900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1125200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1090100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1123800</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1066200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1352300</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1387200</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1110400</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1068300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="W66" s="3">
+        <v>1131500</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1193100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1223800</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1236500</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1337800</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1242700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +5198,26 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +5245,62 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +5328,62 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +5411,62 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +5494,62 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2413,8 +5577,62 @@
       <c r="K72" s="3">
         <v>1112800</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>1091000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1003600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>996400</v>
+      </c>
+      <c r="P72" s="3">
+        <v>947900</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>923300</v>
+      </c>
+      <c r="R72" s="3">
+        <v>905700</v>
+      </c>
+      <c r="S72" s="3">
+        <v>811300</v>
+      </c>
+      <c r="T72" s="3">
+        <v>805900</v>
+      </c>
+      <c r="U72" s="3">
+        <v>804300</v>
+      </c>
+      <c r="V72" s="3">
+        <v>791300</v>
+      </c>
+      <c r="W72" s="3">
+        <v>777600</v>
+      </c>
+      <c r="X72" s="3">
+        <v>798700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>763900</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>776500</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>789700</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>800600</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>1038200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +5660,62 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +5743,62 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +5826,62 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2529,8 +5909,62 @@
       <c r="K76" s="3">
         <v>742200</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>592100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>542300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>486600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>476000</v>
+      </c>
+      <c r="P76" s="3">
+        <v>459000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>431700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>391900</v>
+      </c>
+      <c r="S76" s="3">
+        <v>294300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>286500</v>
+      </c>
+      <c r="U76" s="3">
+        <v>283700</v>
+      </c>
+      <c r="V76" s="3">
+        <v>268300</v>
+      </c>
+      <c r="W76" s="3">
+        <v>255000</v>
+      </c>
+      <c r="X76" s="3">
+        <v>272400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>237200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>248800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>258400</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>264900</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>506100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,13 +5992,67 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2592,8 +6080,62 @@
       <c r="K80" s="2">
         <v>44286</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="M80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="N80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="O80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="P80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="R80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="S80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="T80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="U80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="V80" s="2">
+        <v>43281</v>
+      </c>
+      <c r="W80" s="2">
+        <v>43190</v>
+      </c>
+      <c r="X80" s="2">
+        <v>43100</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>43008</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>42916</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>42825</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>42735</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +6163,62 @@
       <c r="K81" s="3">
         <v>42600</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>64000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>49300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>40500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>31300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>94500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U81" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="X81" s="3">
+        <v>34800</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +6230,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +6277,62 @@
       <c r="K83" s="3">
         <v>28700</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="T83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="U83" s="3">
+        <v>16900</v>
+      </c>
+      <c r="V83" s="3">
+        <v>17400</v>
+      </c>
+      <c r="W83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="X83" s="3">
+        <v>18800</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>182900</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>177900</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>177400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +6360,62 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +6443,62 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +6526,62 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +6609,62 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +6692,62 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +6775,62 @@
       <c r="K89" s="3">
         <v>135800</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>41500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>207300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>47400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>42700</v>
+      </c>
+      <c r="R89" s="3">
+        <v>109600</v>
+      </c>
+      <c r="S89" s="3">
+        <v>75800</v>
+      </c>
+      <c r="T89" s="3">
+        <v>43700</v>
+      </c>
+      <c r="U89" s="3">
+        <v>40900</v>
+      </c>
+      <c r="V89" s="3">
+        <v>58400</v>
+      </c>
+      <c r="W89" s="3">
+        <v>84500</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>23600</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>52600</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>59300</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>71700</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +6842,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +6889,62 @@
       <c r="K91" s="3">
         <v>-11400</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-37300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +6972,62 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +7055,62 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +7138,62 @@
       <c r="K94" s="3">
         <v>-1279300</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>43600</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="R94" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W94" s="3">
+        <v>400</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-17100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +7205,26 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +7252,62 @@
       <c r="K96" s="3">
         <v>-17100</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +7335,62 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +7418,62 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +7501,62 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +7584,62 @@
       <c r="K100" s="3">
         <v>1107300</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="O100" s="3">
+        <v>76000</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-289500</v>
+      </c>
+      <c r="R100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="W100" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="X100" s="3">
+        <v>34100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +7667,62 @@
       <c r="K101" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>200</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U101" s="3">
+        <v>700</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>-7500</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +7749,60 @@
       </c>
       <c r="K102" s="3">
         <v>-36400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="M102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N102" s="3">
+        <v>23500</v>
+      </c>
+      <c r="O102" s="3">
+        <v>112400</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-279500</v>
+      </c>
+      <c r="R102" s="3">
+        <v>115400</v>
+      </c>
+      <c r="S102" s="3">
+        <v>82400</v>
+      </c>
+      <c r="T102" s="3">
+        <v>44400</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="V102" s="3">
+        <v>35400</v>
+      </c>
+      <c r="W102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="X102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>15700</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>42100</v>
       </c>
     </row>
   </sheetData>

--- a/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3BC46-BC9D-4D9E-B389-C6346EFABC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="UPBD" sheetId="6" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>UPBD</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,384 +654,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1016100</v>
+      </c>
+      <c r="E8" s="3">
         <v>990500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1024000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1071300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1159700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1171400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1181300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1194000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1036800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>716500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>683700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>701900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>667900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>649400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>655900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>696700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>661800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>644900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>655700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>698000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>639000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>644000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>677600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>742000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>684100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>693900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E9" s="3">
         <v>495100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>518400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>538700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>613600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>603200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>612500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>606500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>526300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>289100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>287000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>284200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>281800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>249400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>247900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>271800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>242200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>237200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>231800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>261100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>228100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>231500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>245100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>279300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>241400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>236700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>506300</v>
+      </c>
+      <c r="E10" s="3">
         <v>495400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>505600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>532600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>546100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>568200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>568800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>587500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>510500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>427400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>399500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>420100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>411200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>408000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>424900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>419600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>407700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>423900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>436900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>410900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>412500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>432500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>462700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>442700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1179,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,91 +1242,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E14" s="3">
         <v>31500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>44600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>45600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>40100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>57800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>35900</v>
       </c>
       <c r="K14" s="3">
         <v>35900</v>
       </c>
       <c r="L14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1300</v>
       </c>
       <c r="P14" s="3">
         <v>1300</v>
       </c>
       <c r="Q14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>27600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>13700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>151300</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1354,64 +1340,64 @@
         <v>12900</v>
       </c>
       <c r="E15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F15" s="3">
         <v>12800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17900</v>
-      </c>
-      <c r="X15" s="3">
-        <v>18700</v>
       </c>
       <c r="Y15" s="3">
         <v>18700</v>
@@ -1420,16 +1406,19 @@
         <v>18700</v>
       </c>
       <c r="AA15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AB15" s="3">
         <v>18500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>19900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1456,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1051200</v>
+      </c>
+      <c r="E17" s="3">
         <v>948100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>986900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1013200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1148700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1134600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1114100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1087500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>966700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>661900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>631800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>630100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>653100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>610500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>526100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>679300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>648100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>619300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>628600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>708300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>693800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>652400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>678500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>740800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>843400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E18" s="3">
         <v>42400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>67200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>106500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>67900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>129800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-159300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-8700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>300</v>
       </c>
       <c r="X20" s="3">
         <v>300</v>
       </c>
       <c r="Y20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>73700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>107400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>153400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>94200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>83500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>146900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>44800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-35800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>184200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>18800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>194300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E22" s="3">
         <v>26700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3400</v>
       </c>
       <c r="M22" s="3">
         <v>3400</v>
       </c>
       <c r="N22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E23" s="3">
         <v>15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>86100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>63200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>121700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-21400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-66200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-170900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="E24" s="3">
         <v>13300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-24500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>61300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2400,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,17 +2471,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2465,11 +2489,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>76500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2483,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2566,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2649,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>8700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-300</v>
       </c>
       <c r="X32" s="3">
         <v>-300</v>
       </c>
       <c r="Y32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>34800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2898,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>34800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3100,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3131,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E41" s="3">
         <v>144100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>165600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>145100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>227400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>206400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>73700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>353100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>237700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>111000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>116800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>81400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>73000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>76200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>73800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>58100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>95400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3297,257 +3350,269 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E43" s="3">
         <v>111900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>122600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>126400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>131900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>120800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>115300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>75500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>73100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>70800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>63800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>65200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>69700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>64800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>69800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>62300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>64400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>66600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>69800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>59200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1070200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1124800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1072600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1117900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1145100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1306000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1268800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1242800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1251200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>909200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>737200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>781500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>835700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>743700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>739100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>767900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>807500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>776300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>782300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>812500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>869000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>870200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>906300</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E45" s="3">
         <v>46100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>67100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>67500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>64600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>54400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>56400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>52200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>55000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3629,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3704,182 +3772,191 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>945500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1002000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>970400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>588700</v>
+      </c>
+      <c r="E48" s="3">
         <v>597700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>607100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>602500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>601000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>599400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>607600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>603800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>607400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>425100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>426100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>424600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>430700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>447700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>462000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>463500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>485700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>226300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>243100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>253900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>269900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>282900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>305400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>311700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>312700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>316400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>315100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>634700</v>
+      </c>
+      <c r="E49" s="3">
         <v>649200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>663600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>678100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>692600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>714900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>786900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>828200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>825700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>79000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>79500</v>
-      </c>
-      <c r="R49" s="3">
-        <v>57100</v>
       </c>
       <c r="S49" s="3">
         <v>57100</v>
       </c>
       <c r="T49" s="3">
+        <v>57100</v>
+      </c>
+      <c r="U49" s="3">
         <v>57300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>57500</v>
       </c>
       <c r="V49" s="3">
         <v>57500</v>
       </c>
       <c r="W49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="X49" s="3">
         <v>57600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>57500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>57400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>56200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>56300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>60600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>212500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3961,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4044,40 +4124,43 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E52" s="3">
         <v>82900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>14900</v>
       </c>
       <c r="N52" s="3">
         <v>14900</v>
@@ -4089,7 +4172,7 @@
         <v>14900</v>
       </c>
       <c r="Q52" s="3">
-        <v>25600</v>
+        <v>14900</v>
       </c>
       <c r="R52" s="3">
         <v>25600</v>
@@ -4101,16 +4184,16 @@
         <v>25600</v>
       </c>
       <c r="U52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="V52" s="3">
         <v>28400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29000</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -4127,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4210,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2741100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2763600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2768600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2767100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2777100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2993300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3053700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3035300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3007000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1751000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1667600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1576600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1607100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1582800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1497900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1744200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1681400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1396900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1352100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1366300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1386400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1420800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1430300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1472600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1495000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1602700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1748800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4324,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4355,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E57" s="3">
         <v>155400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>139800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>120700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>130700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>135700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>150200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>174100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>186100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>176300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>145900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>106900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>168100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>95700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>113800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>98100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>92400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>90900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>90400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>88200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>113000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>82600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>108200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4497,20 +4594,20 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4521,91 +4618,97 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>623700</v>
+      </c>
+      <c r="E59" s="3">
         <v>626200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>618500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>625200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>624900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>659200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>661000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>666200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>681200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>605900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>589700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>587300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>506900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>560800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>574300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>586100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>611100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>337500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>311300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>311500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>329700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>298000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>328300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>322300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>340400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>332200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4687,174 +4790,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1368900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1369400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1370000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1400600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1571200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1281600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1277000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1332400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>190500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>190600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>190700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>353800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>230900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>251000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>540700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>540400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>540000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>539700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>577400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>596500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>667200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>636300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>635700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>653400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>724200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>724900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>88000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>92800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>92400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>113900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>106800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>92800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>168600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>166200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>163400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>164000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>135800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>129900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>116800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>119100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>119300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>116600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>114400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>87100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>139200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>152800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>160100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>173100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4936,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5019,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5102,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2070800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2238500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2220400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2208300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2254100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2480100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2199600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2210100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2264800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1158900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1125200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1090100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1131000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1123800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1066200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1352300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1387200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1110400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1068300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1098000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1131500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1148300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1193100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1223800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1236500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1337800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1242700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5216,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5299,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5382,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5465,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5548,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1105500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1077200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1093500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1119000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1119300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1143600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1154400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1153700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1112800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1091000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1051800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1003600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>996400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>947900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>923300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>905700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>811300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>805900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>804300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>791300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>777600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>798700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>763900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>776500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>789700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>800600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1038200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5714,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5797,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5880,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>670300</v>
+      </c>
+      <c r="E76" s="3">
         <v>525100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>548200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>558800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>523100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>513300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>854100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>825200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>742200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>592100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>542300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>486600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>476000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>459000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>431700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>391900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>294300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>286500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>283700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>268300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>255000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>272400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>237200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>248800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>258400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>264900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>506100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6046,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>34800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6248,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6257,82 +6419,85 @@
         <v>31100</v>
       </c>
       <c r="E83" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F83" s="3">
         <v>31000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>17900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18800</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>18700</v>
       </c>
       <c r="Z83" s="3">
         <v>18700</v>
       </c>
       <c r="AA83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AB83" s="3">
         <v>182900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>177900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6414,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6497,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6580,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6663,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6746,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E89" s="3">
         <v>56400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>125000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>81800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>205300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>66100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>75700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-59700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>207300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>75800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>84500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-24900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>52600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>59300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-20800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>71700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6860,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7026,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7109,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1279300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-13600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7223,50 +7419,51 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-18800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-15800</v>
       </c>
       <c r="M96" s="3">
         <v>-15800</v>
       </c>
       <c r="N96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7292,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-4300</v>
@@ -7306,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-4300</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7389,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7472,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7555,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-66200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-201300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-99900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-41100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-73400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1107300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-178700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-289500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-77400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>34100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>-4800</v>
       </c>
       <c r="AC100" s="3">
         <v>-4800</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>200</v>
       </c>
       <c r="S101" s="3">
         <v>200</v>
       </c>
       <c r="T101" s="3">
+        <v>200</v>
+      </c>
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-67900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-279500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>115400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>82400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-37300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-34900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>42100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>UPBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,298 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>979200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1016100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>990500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1024000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1071300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1159700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1171400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1181300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1194000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1036800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>716500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>712000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>683700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>701900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>667900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>649400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>655900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>696700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>661800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>644900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>655700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>698000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>639000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>644000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>677600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>742000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>684100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>693900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>472900</v>
+      </c>
+      <c r="E9" s="3">
         <v>509800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>495100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>518400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>538700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>613600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>603200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>612500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>606500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>526300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>289100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>287000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>284200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>281800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>249400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>247900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>271800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>242200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>237200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>231800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>261100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>228100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>231500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>245100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>279300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>241400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>236700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,85 +974,88 @@
         <v>506300</v>
       </c>
       <c r="E10" s="3">
+        <v>506300</v>
+      </c>
+      <c r="F10" s="3">
         <v>495400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>505600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>532600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>546100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>568200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>568800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>587500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>510500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>427400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>399500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>420100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>411200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>408000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>424900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>419600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>407700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>423900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>436900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>410900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>412500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>432500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>462700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>442700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,162 +1262,168 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E14" s="3">
         <v>109500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>44600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>45600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>40100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>57800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>35900</v>
       </c>
       <c r="L14" s="3">
         <v>35900</v>
       </c>
       <c r="M14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1300</v>
       </c>
       <c r="Q14" s="3">
         <v>1300</v>
       </c>
       <c r="R14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>27600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>11100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>13700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>151300</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="E15" s="3">
         <v>12900</v>
       </c>
       <c r="F15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G15" s="3">
         <v>12800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17900</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>18700</v>
       </c>
       <c r="Z15" s="3">
         <v>18700</v>
@@ -1409,16 +1432,19 @@
         <v>18700</v>
       </c>
       <c r="AB15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AC15" s="3">
         <v>18500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>19900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>895100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1051200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>948100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>986900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1013200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1148700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1134600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1114100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1087500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>966700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>661900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>631800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>630100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>653100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>610500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>526100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>679300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>648100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>619300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>628600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>708300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>693800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>652400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>678500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>740800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>843400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>67200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>106500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>54600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>129800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>27100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-159300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>300</v>
       </c>
       <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>84200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>107400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>94200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>83500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>51700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>146900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>44800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-35800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>16100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>184200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>18800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>194300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E22" s="3">
         <v>28100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3400</v>
       </c>
       <c r="N22" s="3">
         <v>3400</v>
       </c>
       <c r="O22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>11800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-62800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>63200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>121700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-66200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-13900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-170900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-110100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-24600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-24500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E26" s="3">
         <v>47300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-41700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-146400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E27" s="3">
         <v>47300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>13800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-41700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-146400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>76500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>8700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-300</v>
       </c>
       <c r="Y32" s="3">
         <v>-300</v>
       </c>
       <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E33" s="3">
         <v>47300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>94500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>34800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-146400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E35" s="3">
         <v>47300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>94500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>34800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-146400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E41" s="3">
         <v>171700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>227400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>182900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>73700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>353100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>237700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>155400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>111000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>116800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>81400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>73000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>76200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>73800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>58100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>95400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,266 +3443,278 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E43" s="3">
         <v>101800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>122600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>126400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>131900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>115300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>77000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>73100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>70800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>63800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>69600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>69700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>64800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>69800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>62300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>64400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>66600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>69800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>59200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1070200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1124800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1072600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1117900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1145100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1306000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1268800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1242800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1251200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>909200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>737200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>781500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>835700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>743700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>739100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>767900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>807500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>776300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>782300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>812500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>869000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>870200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>906300</v>
       </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
       <c r="AC44" s="3">
         <v>0</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E45" s="3">
         <v>44800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>71300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>67100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>67500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>64600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>54400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>56400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>52200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>55000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3775,188 +3880,197 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>945500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1002000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>970400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>578700</v>
+      </c>
+      <c r="E48" s="3">
         <v>588700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>597700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>607100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>602500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>601000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>599400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>607600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>603800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>607400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>425100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>426100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>424600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>430700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>447700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>462000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>463500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>485700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>226300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>243100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>253900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>269900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>282900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>305400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>311700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>312700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>316400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>315100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>620200</v>
+      </c>
+      <c r="E49" s="3">
         <v>634700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>649200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>663600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>678100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>692600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>714900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>786900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>828200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>825700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>78700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>79000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>79500</v>
-      </c>
-      <c r="S49" s="3">
-        <v>57100</v>
       </c>
       <c r="T49" s="3">
         <v>57100</v>
       </c>
       <c r="U49" s="3">
+        <v>57100</v>
+      </c>
+      <c r="V49" s="3">
         <v>57300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>57500</v>
       </c>
       <c r="W49" s="3">
         <v>57500</v>
       </c>
       <c r="X49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="Y49" s="3">
         <v>57600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>57500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>57400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>56200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>56300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>60600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>212500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,43 +4244,46 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E52" s="3">
         <v>123100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>14900</v>
       </c>
       <c r="O52" s="3">
         <v>14900</v>
@@ -4175,7 +4295,7 @@
         <v>14900</v>
       </c>
       <c r="R52" s="3">
-        <v>25600</v>
+        <v>14900</v>
       </c>
       <c r="S52" s="3">
         <v>25600</v>
@@ -4187,16 +4307,16 @@
         <v>25600</v>
       </c>
       <c r="V52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="W52" s="3">
         <v>28400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29000</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2585900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2741100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2763600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2768600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2767100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2777100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2993300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3053700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3035300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3007000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1751000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1667600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1576600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1607100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1582800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1497900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1744200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1681400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1396900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1352100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1366300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1386400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1420800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1430300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1472600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1495000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1602700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1748800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E57" s="3">
         <v>118700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>155400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>139800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>120700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>130700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>135700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>186100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>176300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>145900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>168100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>105000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>95700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>118900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>113800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>92400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>90900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>90400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>88200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>113000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>82600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>108200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4597,20 +4731,20 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
@@ -4621,94 +4755,100 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>606700</v>
+      </c>
+      <c r="E59" s="3">
         <v>623700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>626200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>618500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>625200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>624900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>659200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>661000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>666200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>681200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>605900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>589700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>587300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>506900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>560800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>574300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>586100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>611100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>337500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>311300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>311500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>329700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>298000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>328300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>322300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>340400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>332200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,180 +4933,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1237800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1328400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1368900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1369400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1370000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1400600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1571200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1281600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1277000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1332400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>190500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>190600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>190700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>353800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>230900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>251000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>540700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>540400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>540000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>539700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>577400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>596500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>667200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>636300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>635700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>653400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>724200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>724900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>88000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>92800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>92400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>92800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>176400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>168600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>166200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>163400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>164000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>135800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>129900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>116800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>119100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>119300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>116600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>114400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>87100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>139200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>152800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>160100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>173100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1960300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2070800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2238500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2220400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2208300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2254100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2480100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2199600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2210100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2264800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1158900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1125200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1090100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1123800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1066200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1352300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1387200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1110400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1068300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1098000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1131500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1148300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1193100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1223800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1236500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1337800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1242700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1040800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1105500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1077200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1093500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1119000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1119300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1143600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1154400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1153700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1112800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1091000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1051800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1003600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>996400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>947900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>923300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>905700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>811300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>805900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>804300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>791300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>777600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>798700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>763900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>776500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>789700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>800600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1038200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>625600</v>
+      </c>
+      <c r="E76" s="3">
         <v>670300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>525100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>548200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>558800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>523100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>513300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>854100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>825200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>742200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>592100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>542300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>486600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>476000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>459000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>431700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>391900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>294300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>286500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>283700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>268300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>255000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>272400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>237200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>248800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>258400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>264900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>506100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E81" s="3">
         <v>47300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>94500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>34800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-146400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="E83" s="3">
         <v>31100</v>
       </c>
       <c r="F83" s="3">
+        <v>31100</v>
+      </c>
+      <c r="G83" s="3">
         <v>31000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>17400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>17900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18800</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>18700</v>
       </c>
       <c r="AA83" s="3">
         <v>18700</v>
       </c>
       <c r="AB83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AC83" s="3">
         <v>182900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>177900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
         <v>105400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>56400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>125000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>81800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>205300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>75700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>114700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-59700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>207300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>75800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>84500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-24900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>52600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>59300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-20800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>71700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-18100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1279300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>43600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-17900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-13600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,53 +7653,54 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-18800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-15800</v>
       </c>
       <c r="N96" s="3">
         <v>-15800</v>
       </c>
       <c r="O96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7492,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-4300</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-4300</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-69400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-66200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-201300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-99900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1107300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-178700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>76000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-289500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-77400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>34100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>-4800</v>
       </c>
       <c r="AD100" s="3">
         <v>-4800</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>200</v>
       </c>
       <c r="T101" s="3">
         <v>200</v>
       </c>
       <c r="U101" s="3">
+        <v>200</v>
+      </c>
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>4300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E102" s="3">
         <v>27600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>53500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-67900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-279500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>115400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>82400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>44400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>35400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-37300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-34900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>42100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UPBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>UPBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>979100</v>
+      </c>
+      <c r="E8" s="3">
         <v>979200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1016100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>990500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1024000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1071300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1159700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1171400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1181300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1194000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1036800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>716500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>712000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>683700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>701900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>667900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>649400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>655900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>696700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>661800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>644900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>655700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>698000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>639000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>644000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>677600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>742000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>684100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>693900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>481900</v>
+      </c>
+      <c r="E9" s="3">
         <v>472900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>509800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>495100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>518400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>538700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>613600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>603200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>612500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>606500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>526300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>289100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>287000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>284200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>281800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>249400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>247900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>271800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>242200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>237200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>231800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>261100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>228100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>231500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>245100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>279300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>241400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>236700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>506300</v>
+        <v>497200</v>
       </c>
       <c r="E10" s="3">
         <v>506300</v>
       </c>
       <c r="F10" s="3">
+        <v>506300</v>
+      </c>
+      <c r="G10" s="3">
         <v>495400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>505600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>532600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>546100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>568200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>568800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>587500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>510500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>427400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>425000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>399500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>420100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>411200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>408000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>424900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>419600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>407700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>423900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>436900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>410900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>412500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>432500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>462700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>442700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E14" s="3">
         <v>9300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>109500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>44600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>45600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>57800</v>
-      </c>
-      <c r="L14" s="3">
-        <v>35900</v>
       </c>
       <c r="M14" s="3">
         <v>35900</v>
       </c>
       <c r="N14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1300</v>
       </c>
       <c r="R14" s="3">
         <v>1300</v>
       </c>
       <c r="S14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>19500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>27600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>11100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>13700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>151300</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,70 +1386,70 @@
         <v>12600</v>
       </c>
       <c r="E15" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="F15" s="3">
         <v>12900</v>
       </c>
       <c r="G15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H15" s="3">
         <v>12800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17900</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>18700</v>
       </c>
       <c r="AA15" s="3">
         <v>18700</v>
@@ -1435,16 +1458,19 @@
         <v>18700</v>
       </c>
       <c r="AC15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AD15" s="3">
         <v>18500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>19900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>921000</v>
+      </c>
+      <c r="E17" s="3">
         <v>895100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1051200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>948100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>986900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1013200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1148700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1134600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1114100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1087500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>966700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>661900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>631800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>630100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>653100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>610500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>526100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>679300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>648100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>619300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>628600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>708300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>693800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>652400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>678500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>740800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>843400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>677200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E18" s="3">
         <v>84100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-35100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>67200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>106500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>54600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>129800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>27100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-54800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-159300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-8700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>300</v>
       </c>
       <c r="Z20" s="3">
         <v>300</v>
       </c>
       <c r="AA20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E21" s="3">
         <v>115900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>84200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>153400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>94200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>83500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>51700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>146900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>44800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-35800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>16100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>184200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>18800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>194300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E22" s="3">
         <v>28200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3400</v>
       </c>
       <c r="O22" s="3">
         <v>3400</v>
       </c>
       <c r="P22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>11600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>11800</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E23" s="3">
         <v>56800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-62800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>49400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>121700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>16500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-66200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-13900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-170900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E24" s="3">
         <v>102400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-110100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-24600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-7100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-24500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-41700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-8900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-146400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>94500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>13800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-41700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-146400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,17 +2599,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>76500</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>8700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-300</v>
       </c>
       <c r="Z32" s="3">
         <v>-300</v>
       </c>
       <c r="AA32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>94500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>34800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-146400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>94500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>34800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-146400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E41" s="3">
         <v>86800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>171700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>165600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>108300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>145100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>227400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>182900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>73700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>353100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>237700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>155400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>111000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>116800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>81400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>73000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>76200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>73800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>58100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>95400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,275 +3536,287 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E43" s="3">
         <v>98800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>122600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>126400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>120800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>115300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>90000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>75500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>73100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>63800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>69600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>65200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>69700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>64800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>69800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>62300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>64400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>66600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>69800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>59200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1091500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1069700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1070200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1124800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1072600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1117900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1145100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1306000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1268800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1242800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1251200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>909200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>737200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>781500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>835700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>743700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>739100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>767900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>807500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>776300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>782300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>812500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>869000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>870200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>906300</v>
       </c>
-      <c r="AC44" s="3">
-        <v>0</v>
-      </c>
       <c r="AD44" s="3">
         <v>0</v>
       </c>
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E45" s="3">
         <v>41100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>71300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>67100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>67500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>64600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>54400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>56400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>52200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>55000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>57600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3883,194 +3988,203 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>945500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1002000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>970400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>573100</v>
+      </c>
+      <c r="E48" s="3">
         <v>578700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>588700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>597700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>607100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>602500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>601000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>599400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>607600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>603800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>607400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>425100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>426100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>424600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>430700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>447700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>462000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>463500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>485700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>226300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>243100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>253900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>269900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>282900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>305400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>311700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>312700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>316400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>315100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>605700</v>
+      </c>
+      <c r="E49" s="3">
         <v>620200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>634700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>649200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>663600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>678100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>692600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>714900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>786900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>828200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>825700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>78400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>78700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>79000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>79500</v>
-      </c>
-      <c r="T49" s="3">
-        <v>57100</v>
       </c>
       <c r="U49" s="3">
         <v>57100</v>
       </c>
       <c r="V49" s="3">
+        <v>57100</v>
+      </c>
+      <c r="W49" s="3">
         <v>57300</v>
-      </c>
-      <c r="W49" s="3">
-        <v>57500</v>
       </c>
       <c r="X49" s="3">
         <v>57500</v>
       </c>
       <c r="Y49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="Z49" s="3">
         <v>57600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>57500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>57400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>56200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>56300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>60600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>212500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,46 +4364,49 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E52" s="3">
         <v>85500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>14900</v>
       </c>
       <c r="P52" s="3">
         <v>14900</v>
@@ -4298,7 +4418,7 @@
         <v>14900</v>
       </c>
       <c r="S52" s="3">
-        <v>25600</v>
+        <v>14900</v>
       </c>
       <c r="T52" s="3">
         <v>25600</v>
@@ -4310,16 +4430,16 @@
         <v>25600</v>
       </c>
       <c r="W52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="X52" s="3">
         <v>28400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29000</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2626100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2585900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2741100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2763600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2768600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2767100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2777100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2993300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3053700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3035300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3007000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1751000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1667600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1576600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1607100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1582800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1497900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1744200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1681400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1396900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1352100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1366300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1386400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1420800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1430300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1472600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1495000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1602700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1748800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E57" s="3">
         <v>103500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>155400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>139800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>120700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>130700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>135700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>174100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>179900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>186100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>176300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>145900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>106900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>168100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>105000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>95700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>118900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>113800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>98100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>92400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>90900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>90400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>88200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>113000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>82600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>108200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4734,20 +4868,20 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
@@ -4758,97 +4892,103 @@
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>599100</v>
+      </c>
+      <c r="E59" s="3">
         <v>606700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>623700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>626200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>618500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>625200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>624900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>659200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>661000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>666200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>681200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>605900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>589700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>587300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>506900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>560800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>574300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>586100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>611100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>337500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>311300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>311500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>329700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>298000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>328300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>322300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>340400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>332200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,186 +5076,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1237800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1328400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1368900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1369400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1370000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1571200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1281600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1277000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1332400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>190500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>190600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>190700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>353800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>230900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>251000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>540700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>540400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>540000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>539700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>577400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>596500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>667200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>636300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>635700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>653400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>724200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>724900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E62" s="3">
         <v>12300</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>88000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>92800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>97900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>113900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>92800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>176400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>168600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>166200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>163400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>164000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>135800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>129900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>116800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>119100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>119300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>116600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>114400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>87100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>139200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>152800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>160100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>173100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2028800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1960300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2070800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2238500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2220400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2208300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2254100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2480100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2199600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2210100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2264800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1158900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1125200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1090100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1131000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1123800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1066200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1352300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1387200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1110400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1068300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1098000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1131500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1148300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1193100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1223800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1236500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1337800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1242700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1026300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1040800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1105500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1077200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1093500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1119000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1119300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1143600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1154400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1153700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1112800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1091000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1051800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1003600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>996400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>947900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>923300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>905700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>811300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>805900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>804300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>791300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>777600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>798700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>763900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>776500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>789700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>800600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1038200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>597200</v>
+      </c>
+      <c r="E76" s="3">
         <v>625600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>670300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>525100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>548200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>558800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>523100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>513300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>854100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>825200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>742200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>592100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>542300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>486600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>476000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>459000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>431700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>391900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>294300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>286500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>283700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>268300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>255000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>272400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>237200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>248800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>258400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>264900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>506100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>94500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>34800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-146400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E83" s="3">
         <v>30800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>31100</v>
       </c>
       <c r="F83" s="3">
         <v>31100</v>
       </c>
       <c r="G83" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H83" s="3">
         <v>31000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>17400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18800</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>18700</v>
       </c>
       <c r="AB83" s="3">
         <v>18700</v>
       </c>
       <c r="AC83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AD83" s="3">
         <v>182900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>177900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>177400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>56400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>125000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>81800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>205300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>114700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>135800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-59700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>207300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>75800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>58400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>84500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-24900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>23600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>52600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>59300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-20800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>71700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-22000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1279300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>43600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-17900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-13600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,56 +7887,57 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-18800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-20900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-17100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-15800</v>
       </c>
       <c r="O96" s="3">
         <v>-15800</v>
       </c>
       <c r="P96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7729,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>-4300</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>-4300</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-110600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-69400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-66200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-201300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-99900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1107300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-178700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>76000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-289500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-41100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-77400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>34100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AD100" s="3">
-        <v>-4800</v>
       </c>
       <c r="AE100" s="3">
         <v>-4800</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
-      </c>
-      <c r="T101" s="3">
-        <v>200</v>
       </c>
       <c r="U101" s="3">
         <v>200</v>
       </c>
       <c r="V101" s="3">
+        <v>200</v>
+      </c>
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>4300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-84900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-67900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>112400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-279500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>115400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>82400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>44400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>35400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-37300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-34900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>42100</v>
       </c>
     </row>
